--- a/Adwords/日本市场/日本推广站.xlsx
+++ b/Adwords/日本市场/日本推广站.xlsx
@@ -1036,7 +1036,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1070,6 +1070,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1128,7 +1134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1170,12 +1176,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1186,6 +1186,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1957,8 +1966,8 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1982,7 +1991,7 @@
       <c r="B1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>147</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -2004,322 +2013,322 @@
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="18" customFormat="1" ht="121.5">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:9" s="16" customFormat="1" ht="121.5">
+      <c r="A2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="16" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="18" customFormat="1" ht="67.5">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:9" s="16" customFormat="1" ht="67.5">
+      <c r="A3" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="16" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="18" customFormat="1" ht="108">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:9" s="16" customFormat="1" ht="108">
+      <c r="A4" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="16" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="119.25" customHeight="1">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:9" s="16" customFormat="1" ht="119.25" customHeight="1">
+      <c r="A5" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="16" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="19" customFormat="1" ht="108">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:9" s="17" customFormat="1" ht="108">
+      <c r="A6" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="17" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="19" customFormat="1" ht="90.75" customHeight="1">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:9" s="17" customFormat="1" ht="90.75" customHeight="1">
+      <c r="A7" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="19" customFormat="1" ht="67.5">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:9" s="17" customFormat="1" ht="67.5">
+      <c r="A8" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="17" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="19" customFormat="1" ht="94.5">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:9" s="17" customFormat="1" ht="94.5">
+      <c r="A9" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="19" customFormat="1" ht="123" customHeight="1">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:9" s="17" customFormat="1" ht="123" customHeight="1">
+      <c r="A10" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="17" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="19" customFormat="1" ht="117.75" customHeight="1">
-      <c r="A11" s="19" t="s">
+    <row r="11" spans="1:9" s="17" customFormat="1" ht="117.75" customHeight="1">
+      <c r="A11" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="17" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="20" customFormat="1" ht="94.5">
-      <c r="A12" s="20" t="s">
+    <row r="12" spans="1:9" s="18" customFormat="1" ht="94.5">
+      <c r="A12" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="18" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="20" customFormat="1" ht="78" customHeight="1">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:9" s="18" customFormat="1" ht="78" customHeight="1">
+      <c r="A13" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="18" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="20" customFormat="1" ht="54">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:9" s="18" customFormat="1" ht="54">
+      <c r="A14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="20" customFormat="1" ht="27">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:9" s="18" customFormat="1" ht="27">
+      <c r="A15" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="18" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2730,10 +2739,10 @@
       <c r="C20" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="16"/>
+      <c r="E20" s="20"/>
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:7" ht="67.5">
